--- a/data/trans_orig/Q17F_D_R2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C80877B-54D4-49D4-A02A-E0FD3920E27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0761E6BD-40DA-46EA-936D-D7568A8D9E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F4CF85A-AF08-4EB6-9AA3-C0D377F8F333}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E1D97182-9D33-42E3-A730-9D8066AFBAD9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2007 (Tasa respuesta: 23,85%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="305">
+  <si>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2007 (Tasa respuesta: 23,85%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>15,56%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>84,44%</t>
   </si>
   <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
   </si>
   <si>
     <t>87,21%</t>
   </si>
   <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>86,16%</t>
   </si>
   <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>17,38%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>17,31%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
   </si>
   <si>
     <t>82,62%</t>
   </si>
   <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
   </si>
   <si>
     <t>82,73%</t>
   </si>
   <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
   </si>
   <si>
     <t>82,69%</t>
   </si>
   <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,79 +197,79 @@
     <t>19,09%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>80,91%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>85,66%</t>
   </si>
   <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
   </si>
   <si>
     <t>16,68%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>15,44%</t>
   </si>
   <si>
-    <t>13,76%</t>
+    <t>13,7%</t>
   </si>
   <si>
     <t>17,49%</t>
@@ -278,19 +278,19 @@
     <t>83,32%</t>
   </si>
   <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
   </si>
   <si>
     <t>85,34%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>84,56%</t>
@@ -299,67 +299,67 @@
     <t>82,51%</t>
   </si>
   <si>
-    <t>86,24%</t>
+    <t>86,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2012 (Tasa respuesta: 26,39%)</t>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2012 (Tasa respuesta: 26,39%)</t>
   </si>
   <si>
     <t>16,91%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>83,09%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>88,94%</t>
   </si>
   <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>86,7%</t>
   </si>
   <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>11,85%</t>
@@ -368,16 +368,16 @@
     <t>8,77%</t>
   </si>
   <si>
-    <t>15,79%</t>
+    <t>15,75%</t>
   </si>
   <si>
     <t>16,49%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
   </si>
   <si>
     <t>14,54%</t>
@@ -386,13 +386,13 @@
     <t>12,2%</t>
   </si>
   <si>
-    <t>17,19%</t>
+    <t>17,13%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>84,21%</t>
+    <t>84,25%</t>
   </si>
   <si>
     <t>91,23%</t>
@@ -401,16 +401,16 @@
     <t>83,51%</t>
   </si>
   <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
   </si>
   <si>
     <t>85,46%</t>
   </si>
   <si>
-    <t>82,81%</t>
+    <t>82,87%</t>
   </si>
   <si>
     <t>87,8%</t>
@@ -419,169 +419,184 @@
     <t>16,65%</t>
   </si>
   <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>12,68%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>87,32%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>85,67%</t>
   </si>
   <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>14,55%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
   </si>
   <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>15,53%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
   </si>
   <si>
     <t>13,95%</t>
   </si>
   <si>
-    <t>12,32%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
   </si>
   <si>
     <t>85,45%</t>
   </si>
   <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>86,46%</t>
   </si>
   <si>
-    <t>84,47%</t>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>86,05%</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2016 (Tasa respuesta: 27,46%)</t>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2016 (Tasa respuesta: 27,46%)</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>15,46%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
   </si>
   <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
   </si>
   <si>
     <t>85,13%</t>
   </si>
   <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>84,54%</t>
   </si>
   <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
   </si>
   <si>
     <t>84,77%</t>
   </si>
   <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>11,69%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
   </si>
   <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>20,4%</t>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>14,77%</t>
@@ -590,28 +605,31 @@
     <t>12,65%</t>
   </si>
   <si>
-    <t>17,32%</t>
+    <t>17,08%</t>
   </si>
   <si>
     <t>88,31%</t>
   </si>
   <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>79,6%</t>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
   </si>
   <si>
     <t>85,23%</t>
   </si>
   <si>
-    <t>82,68%</t>
+    <t>82,92%</t>
   </si>
   <si>
     <t>87,35%</t>
@@ -620,55 +638,55 @@
     <t>15,47%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>15,74%</t>
   </si>
   <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>15,61%</t>
   </si>
   <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>84,26%</t>
   </si>
   <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
   </si>
   <si>
     <t>84,39%</t>
   </si>
   <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>13,19%</t>
@@ -677,31 +695,31 @@
     <t>10,99%</t>
   </si>
   <si>
-    <t>15,89%</t>
+    <t>15,87%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>15,03%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>84,11%</t>
+    <t>84,13%</t>
   </si>
   <si>
     <t>89,01%</t>
@@ -710,238 +728,232 @@
     <t>83,61%</t>
   </si>
   <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>84,97%</t>
   </si>
   <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable en 2023 (Tasa respuesta: 22,27%)</t>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>Tiempo de espera en días hasta la consulta en el centro sanitario, cuartil más desfavorable (Cuartil III de 2023: &gt;15 días) en 2023 (Tasa respuesta: 22,27%)</t>
   </si>
   <si>
     <t>30,98%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
   </si>
   <si>
     <t>40,24%</t>
   </si>
   <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
   </si>
   <si>
     <t>36,93%</t>
   </si>
   <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
   </si>
   <si>
     <t>69,02%</t>
   </si>
   <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
   </si>
   <si>
     <t>59,76%</t>
   </si>
   <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>63,07%</t>
   </si>
   <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
   </si>
   <si>
     <t>31,79%</t>
   </si>
   <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
   </si>
   <si>
     <t>34,68%</t>
   </si>
   <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>68,21%</t>
   </si>
   <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>65,32%</t>
   </si>
   <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
   </si>
   <si>
     <t>39,26%</t>
   </si>
   <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
   </si>
   <si>
     <t>36,76%</t>
   </si>
   <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>43,67%</t>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
   <si>
     <t>37,87%</t>
   </si>
   <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>60,74%</t>
   </si>
   <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
   </si>
   <si>
     <t>63,24%</t>
   </si>
   <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
   </si>
   <si>
     <t>62,13%</t>
   </si>
   <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>33,12%</t>
   </si>
   <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
   </si>
   <si>
     <t>37,84%</t>
   </si>
   <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
+    <t>41,26%</t>
   </si>
   <si>
     <t>35,86%</t>
   </si>
   <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
   </si>
   <si>
     <t>66,88%</t>
   </si>
   <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
   </si>
   <si>
     <t>62,16%</t>
   </si>
   <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
+    <t>58,74%</t>
   </si>
   <si>
     <t>64,14%</t>
   </si>
   <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
+    <t>61,57%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40405467-4D6D-4199-9F22-047DD68E0402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA466D3A-61BB-4222-9C48-A756EF824988}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1939,7 +1951,7 @@
         <v>103</v>
       </c>
       <c r="D13" s="7">
-        <v>100900</v>
+        <v>100901</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -2041,7 +2053,7 @@
         <v>608</v>
       </c>
       <c r="D15" s="7">
-        <v>605083</v>
+        <v>605084</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2104,7 +2116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC358B9D-1E22-40C6-BCF4-E96E8FB87534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE75F35-4FFC-4391-804F-03CFD4B96C86}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2711,10 +2723,10 @@
         <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>244</v>
@@ -2723,13 +2735,13 @@
         <v>258341</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2756,13 @@
         <v>636534</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>889</v>
@@ -2759,13 +2771,13 @@
         <v>957125</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1471</v>
@@ -2774,13 +2786,13 @@
         <v>1593659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA7D004B-C291-41FF-AD7E-50F30BF2DC5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4217BD49-5DEA-4495-87BE-5B4ED6D9C2E8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2991,13 @@
         <v>36712</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -2994,13 +3006,13 @@
         <v>62325</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>93</v>
@@ -3009,13 +3021,13 @@
         <v>99036</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3042,13 @@
         <v>210219</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>304</v>
@@ -3045,13 +3057,13 @@
         <v>340924</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>518</v>
@@ -3060,13 +3072,13 @@
         <v>551143</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3146,13 @@
         <v>52507</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>90</v>
@@ -3149,13 +3161,13 @@
         <v>97310</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>136</v>
@@ -3164,13 +3176,13 @@
         <v>149817</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3197,13 @@
         <v>396830</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>445</v>
@@ -3200,13 +3212,13 @@
         <v>467995</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>818</v>
@@ -3215,13 +3227,13 @@
         <v>864825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3301,13 @@
         <v>17745</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -3304,13 +3316,13 @@
         <v>20733</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -3319,13 +3331,13 @@
         <v>38477</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3352,13 @@
         <v>96994</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>105</v>
@@ -3355,13 +3367,13 @@
         <v>110992</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>193</v>
@@ -3370,13 +3382,13 @@
         <v>207987</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,13 +3456,13 @@
         <v>106963</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -3459,13 +3471,13 @@
         <v>180367</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>263</v>
@@ -3474,13 +3486,13 @@
         <v>287330</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3507,13 @@
         <v>704044</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>854</v>
@@ -3510,13 +3522,13 @@
         <v>919911</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>1529</v>
@@ -3525,13 +3537,13 @@
         <v>1623955</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3606,7 +3618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA66C30B-090D-4CA6-B2B3-88123AAAE0EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5DB9BB4-9A6C-4AC4-B758-7E57B502B085}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3635,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3742,13 @@
         <v>42337</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>145</v>
@@ -3745,13 +3757,13 @@
         <v>99181</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>197</v>
@@ -3760,13 +3772,13 @@
         <v>141518</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3793,13 @@
         <v>94324</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>262</v>
@@ -3796,13 +3808,13 @@
         <v>147319</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>386</v>
@@ -3811,13 +3823,13 @@
         <v>241643</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3897,13 @@
         <v>116930</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H7" s="7">
         <v>247</v>
@@ -3900,13 +3912,13 @@
         <v>172265</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M7" s="7">
         <v>364</v>
@@ -3915,13 +3927,13 @@
         <v>289195</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3948,13 @@
         <v>250881</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>389</v>
@@ -3951,13 +3963,13 @@
         <v>293935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>635</v>
@@ -3966,13 +3978,13 @@
         <v>544816</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4052,13 @@
         <v>49965</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>84</v>
@@ -4055,13 +4067,13 @@
         <v>58416</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -4070,13 +4082,13 @@
         <v>108380</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4103,13 @@
         <v>77299</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="H11" s="7">
         <v>141</v>
@@ -4106,13 +4118,13 @@
         <v>100508</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M11" s="7">
         <v>222</v>
@@ -4121,13 +4133,13 @@
         <v>177808</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4207,13 @@
         <v>209231</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>476</v>
@@ -4210,13 +4222,13 @@
         <v>329862</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M13" s="7">
         <v>699</v>
@@ -4225,13 +4237,13 @@
         <v>539094</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4258,13 @@
         <v>422505</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>792</v>
@@ -4261,13 +4273,13 @@
         <v>541763</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>1243</v>
@@ -4276,13 +4288,13 @@
         <v>964267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
